--- a/Rapport/Test/TestOversigt.xlsx
+++ b/Rapport/Test/TestOversigt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
   <si>
     <t>Test id</t>
   </si>
@@ -31,13 +31,52 @@
   </si>
   <si>
     <t>Bestået</t>
+  </si>
+  <si>
+    <t>Søg på en eksisterende ordre</t>
+  </si>
+  <si>
+    <t>Anette</t>
+  </si>
+  <si>
+    <t>Søg på en ordre som ikke eksisterer</t>
+  </si>
+  <si>
+    <t>Søg på en eksisterende faktura</t>
+  </si>
+  <si>
+    <t>Søg på en faktura som ikke eksisterer</t>
+  </si>
+  <si>
+    <t>Test at systemet giver en fejlbesked når der indtastes bogstaver i søgefeltet</t>
+  </si>
+  <si>
+    <t>Opgrader en eksisterende ordre til en faktura</t>
+  </si>
+  <si>
+    <t>Opgrader en eksisterende ordre til en faktura og tilføj en bedemand.</t>
+  </si>
+  <si>
+    <t>Søg på en fakturanummer uden at tilføje "-" i fakturanummeret</t>
+  </si>
+  <si>
+    <t>Slet en eksisterende ordre</t>
+  </si>
+  <si>
+    <t>Slet en eksisterende faktura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test at man kan oprette en ny bedemand </t>
+  </si>
+  <si>
+    <t>Ændre en faktura til at være betalt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +91,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -86,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -95,6 +139,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,8 +447,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.140625" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
@@ -420,103 +468,175 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -524,7 +644,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -532,7 +652,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -540,7 +660,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -548,7 +668,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -556,7 +676,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -564,7 +684,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -572,7 +692,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -580,7 +700,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -588,7 +708,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -596,7 +716,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -604,7 +724,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -612,7 +732,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -620,7 +740,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -628,7 +748,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -636,7 +756,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -644,7 +764,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -652,7 +772,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -660,7 +780,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -668,7 +788,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -676,7 +796,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -684,7 +804,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -692,7 +812,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -700,7 +820,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -708,7 +828,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -716,7 +836,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -724,7 +844,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -732,7 +852,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">

--- a/Rapport/Test/TestOversigt.xlsx
+++ b/Rapport/Test/TestOversigt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>Test id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Ændre en faktura til at være betalt</t>
+  </si>
+  <si>
+    <t>Delvist bestået</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +120,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -130,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +152,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +454,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,8 +528,8 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>

--- a/Rapport/Test/TestOversigt.xlsx
+++ b/Rapport/Test/TestOversigt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="19155" windowHeight="4680"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
   <si>
     <t>Test id</t>
   </si>
@@ -72,14 +72,105 @@
     <t>Ændre en faktura til at være betalt</t>
   </si>
   <si>
-    <t>Delvist bestået</t>
+    <t>Godkende ordre uden der er valgt nogle vare</t>
+  </si>
+  <si>
+    <t>Indtast et eksisterende tlf nr i db.</t>
+  </si>
+  <si>
+    <t>Kunde der ikke findes i databasen.</t>
+  </si>
+  <si>
+    <t>Ny kunde via ordresalg</t>
+  </si>
+  <si>
+    <t>Opret en ordre med en bemærkning</t>
+  </si>
+  <si>
+    <t>Opret en ordre med en ny sten som er en gravsten</t>
+  </si>
+  <si>
+    <r>
+      <t>Opret ordre med en ny sten som ikke er en gravsten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Postnumer feltet kan kun indeholde 4 cifre (over4).</t>
+  </si>
+  <si>
+    <t>Rediger en eksisterende vare</t>
+  </si>
+  <si>
+    <t>Postnumer feltet kan kun indeholde 4 cifre(under 4).</t>
+  </si>
+  <si>
+    <t>Redigering af kunde via ordesalg</t>
+  </si>
+  <si>
+    <r>
+      <t>Slet en vare fra lageret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Søge på en vare med en Max/ Min pris</t>
+  </si>
+  <si>
+    <t>Søge på en vare med max / min størrelse</t>
+  </si>
+  <si>
+    <t>Tilføj en vare på lageret</t>
+  </si>
+  <si>
+    <t>Ugyldige tegn i navn felterne</t>
+  </si>
+  <si>
+    <t>Test at man ikke kan indtaste bogstaver i antal i tilføjelse</t>
+  </si>
+  <si>
+    <t>Ikke bestået</t>
+  </si>
+  <si>
+    <t>Test at man ikke kan indtaste bogstaver i række</t>
+  </si>
+  <si>
+    <t>Test at man kan tilføje en speciel linje</t>
+  </si>
+  <si>
+    <t>test at man ikke kan indtaste bogstaver i speciel linje antal</t>
+  </si>
+  <si>
+    <t>Test at man kan tilføje en inskription som bliver registeret i databasen</t>
+  </si>
+  <si>
+    <t>Test ved Kiste/Urne når gravsten ikke vælges</t>
+  </si>
+  <si>
+    <t>Martin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +191,20 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,12 +220,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,8 +251,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -163,13 +260,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +309,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -241,6 +343,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -275,9 +378,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,14 +554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="75.140625" customWidth="1"/>
@@ -465,7 +569,7 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -493,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -507,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -521,21 +625,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -549,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -563,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -577,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -591,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -605,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -619,7 +723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -633,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -647,183 +751,315 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -831,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -839,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -847,7 +1083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -855,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -863,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -871,37 +1107,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rapport/Test/TestOversigt.xlsx
+++ b/Rapport/Test/TestOversigt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="19155" windowHeight="4680"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>Test id</t>
   </si>
@@ -117,6 +117,51 @@
     <t>Redigering af kunde via ordesalg</t>
   </si>
   <si>
+    <t>Søge på en vare med en Max/ Min pris</t>
+  </si>
+  <si>
+    <t>Søge på en vare med max / min størrelse</t>
+  </si>
+  <si>
+    <t>Tilføj en vare på lageret</t>
+  </si>
+  <si>
+    <t>Ugyldige tegn i navn felterne</t>
+  </si>
+  <si>
+    <t>Test at man ikke kan indtaste bogstaver i antal i tilføjelse</t>
+  </si>
+  <si>
+    <t>Ikke bestået</t>
+  </si>
+  <si>
+    <t>Test at man ikke kan indtaste bogstaver i række</t>
+  </si>
+  <si>
+    <t>Test at man kan tilføje en speciel linje</t>
+  </si>
+  <si>
+    <t>test at man ikke kan indtaste bogstaver i speciel linje antal</t>
+  </si>
+  <si>
+    <t>Test at man kan tilføje en inskription som bliver registeret i databasen</t>
+  </si>
+  <si>
+    <t>Test ved Kiste/Urne når gravsten ikke vælges</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Delvist bestået</t>
+  </si>
+  <si>
+    <t>Test af Ordresalg</t>
+  </si>
+  <si>
+    <t>Test af Søg</t>
+  </si>
+  <si>
     <r>
       <t>Slet en vare fra lageret</t>
     </r>
@@ -125,52 +170,17 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Søge på en vare med en Max/ Min pris</t>
-  </si>
-  <si>
-    <t>Søge på en vare med max / min størrelse</t>
-  </si>
-  <si>
-    <t>Tilføj en vare på lageret</t>
-  </si>
-  <si>
-    <t>Ugyldige tegn i navn felterne</t>
-  </si>
-  <si>
-    <t>Test at man ikke kan indtaste bogstaver i antal i tilføjelse</t>
-  </si>
-  <si>
-    <t>Ikke bestået</t>
-  </si>
-  <si>
-    <t>Test at man ikke kan indtaste bogstaver i række</t>
-  </si>
-  <si>
-    <t>Test at man kan tilføje en speciel linje</t>
-  </si>
-  <si>
-    <t>test at man ikke kan indtaste bogstaver i speciel linje antal</t>
-  </si>
-  <si>
-    <t>Test at man kan tilføje en inskription som bliver registeret i databasen</t>
-  </si>
-  <si>
-    <t>Test ved Kiste/Urne når gravsten ikke vælges</t>
-  </si>
-  <si>
-    <t>Martin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,9 +215,17 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +244,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1342F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -232,11 +265,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,15 +286,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,6 +317,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF1342F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -269,9 +331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,7 +371,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -343,7 +405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -378,10 +439,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,14 +614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="75.140625" customWidth="1"/>
@@ -569,549 +629,583 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="15" spans="1:4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="C17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="C22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D32" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="C37" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D37" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,24 +1214,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rapport/Test/TestOversigt.xlsx
+++ b/Rapport/Test/TestOversigt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="19155" windowHeight="4680"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>Test id</t>
   </si>
@@ -175,12 +175,39 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Log-in med forkert brugernavn</t>
+  </si>
+  <si>
+    <t>Start programmet med forkert database oplysninger</t>
+  </si>
+  <si>
+    <t>Opret en ordre og se om den trækker den rigtige moms</t>
+  </si>
+  <si>
+    <t>Thomas Af Danmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Søge på en bestemt varegruppe </t>
+  </si>
+  <si>
+    <t>Lager</t>
+  </si>
+  <si>
+    <t>Adminstration</t>
+  </si>
+  <si>
+    <t>Opret en pdf fil, der kan sendes til revisor.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,11 +305,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,6 +334,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,6 +435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -439,6 +470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kontor">
@@ -614,14 +646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="75.140625" customWidth="1"/>
@@ -629,583 +661,641 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="C26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4">
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4">
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="D32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
-        <v>35</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="D38" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>36</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="B40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>37</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="B41" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="B43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>39</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4">
-        <v>40</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1"/>
+      <c r="B45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>40</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,24 +1304,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rapport/Test/TestOversigt.xlsx
+++ b/Rapport/Test/TestOversigt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>Test id</t>
   </si>
@@ -201,6 +201,24 @@
   </si>
   <si>
     <t>Opret en pdf fil, der kan sendes til revisor.</t>
+  </si>
+  <si>
+    <t>Eksporter database tabeller hvis CSVfiler mappen ikke findes.</t>
+  </si>
+  <si>
+    <t>Test af om backup filer af databasen bliver overskrevet når man eksporterer</t>
+  </si>
+  <si>
+    <t>Åbner mappen CSVfiler når man har eksporteret kommaseparerede filer</t>
+  </si>
+  <si>
+    <t>Test af om programmet kan slette en bruger</t>
+  </si>
+  <si>
+    <t>Test af om man kan ændre kode for en bruger</t>
+  </si>
+  <si>
+    <t>Niklas</t>
   </si>
 </sst>
 </file>
@@ -649,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,46 +1271,86 @@
       <c r="C45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>40</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
       <c r="C46" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>49</v>
+      <c r="D46" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41</v>
       </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>46</v>
       </c>
